--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value126.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value126.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9899038873522993</v>
+        <v>0.4161528050899506</v>
       </c>
       <c r="B1">
-        <v>1.725398305808311</v>
+        <v>0.7137250304222107</v>
       </c>
       <c r="C1">
-        <v>3.898231367932619</v>
+        <v>0.9672904014587402</v>
       </c>
       <c r="D1">
-        <v>2.564139960757918</v>
+        <v>4.545559883117676</v>
       </c>
       <c r="E1">
-        <v>1.040970061378152</v>
+        <v>1.288611054420471</v>
       </c>
     </row>
   </sheetData>
